--- a/biology/Botanique/Polypore_écailleux/Polypore_écailleux.xlsx
+++ b/biology/Botanique/Polypore_écailleux/Polypore_écailleux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polypore_%C3%A9cailleux</t>
+          <t>Polypore_écailleux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyporus squamosus, Cerioporus squamosus
 Le Polypore écailleux (Polyporus squamosus, syn. Cerioporus squamosus) est une espèce de champignons basidiomycètes lignicoles de la famille des Polyporacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polypore_%C3%A9cailleux</t>
+          <t>Polypore_écailleux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les polypores sont des champignons à tubes, très communs sur les bois-morts et arbres sénescents (Ils peuvent à la fois être parasite et saprophyte ; dans ce dernier cas, ils profitent de faiblesses d’un grand nombre de feuillus âgés ou manquant de lumière, plus rarement des conifères.
 Ils sont particulièrement nombreux et gros dans les forêts anciennes (ou "à caractère naturel"), où des groupes de champignons pesant plusieurs kilos peuvent - sous leur propre poids - se détacher et tomber au sol où ils constituent alors une nouvelle source de nourriture pour des espèces mycophages du sol et de la strate herbacée.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Polypore_%C3%A9cailleux</t>
+          <t>Polypore_écailleux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Polypore écailleux est un champignon de couleur jaune brun, parsemé de rangées concentriques de petites écailles brun foncé, qui a une forme circulaire pouvant prendre parfois l’aspect d’un rein aplani et qui en grandissant ressemble alors à un bel éventail (5-60 cm).
 Il a une chair épaisse, élastique et coriace de couleur blanche répandant une forte odeur de farine.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Polypore_%C3%A9cailleux</t>
+          <t>Polypore_écailleux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Polypore écailleux est un agent de la pourriture fibreuse décomposant le bois de l'arbre infesté, dont la larve du coléoptère Mycétophage du Peuplier se nourrit spécifiquement.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Polypore_%C3%A9cailleux</t>
+          <t>Polypore_écailleux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un assez bon champignon  comestible qui doit être consommé jeune, plus tard il devient dur et peut alors causer des troubles digestifs.
 Il est excellent cuit et conservé dans le vinaigre, peut être séché et réduit en poudre comme condiment.
